--- a/Analysis/Genomics_manuscript_TIR/Supplemental_Figures/Supplemental_Table_9.xlsx
+++ b/Analysis/Genomics_manuscript_TIR/Supplemental_Figures/Supplemental_Table_9.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work_Files\GCMP_TIR\immunity_microbiome\Supplemental_Figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D66ED6-FD8B-4143-81EE-93812F2F087E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CEA3B1-D088-485B-82BD-D9EB81879C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2784" yWindow="1560" windowWidth="17280" windowHeight="8964" xr2:uid="{1D9A66A8-7322-49B3-B858-11998F327895}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{1D9A66A8-7322-49B3-B858-11998F327895}"/>
   </bookViews>
   <sheets>
     <sheet name="Table S9A" sheetId="1" r:id="rId1"/>
@@ -104,28 +104,10 @@
     <t>all_weighted_unifrac</t>
   </si>
   <si>
-    <t>Phylogenetic comparison of TIR, LRR, and Ig domains vs. microbiome PC axes from beta-diversity PCoA analysis in all compartments for all and unique isoforms.</t>
-  </si>
-  <si>
-    <t>Table S9A</t>
-  </si>
-  <si>
-    <t>Table S9B</t>
-  </si>
-  <si>
-    <t>Phylogenetic comparison of TIR, LRR, and Ig domains vs. microbiome PC axes from beta-diversity PCoA analysis in the mucus compartment for all and unique isoforms.</t>
-  </si>
-  <si>
     <t>mucus_unweighted_unifrac</t>
   </si>
   <si>
     <t>mucus_weighted_unifrac</t>
-  </si>
-  <si>
-    <t>Table S9C</t>
-  </si>
-  <si>
-    <t>Phylogenetic comparison of TIR, LRR, and Ig domains vs. microbiome PC axes from beta-diversity PCoA analysis in the tissue compartment for all and unique isoforms.</t>
   </si>
   <si>
     <t>tissue_unweighted_unifrac</t>
@@ -134,16 +116,34 @@
     <t>tissue_weighted_unifrac</t>
   </si>
   <si>
-    <t>Table S9D</t>
-  </si>
-  <si>
-    <t>Phylogenetic comparison of TIR, LRR, and Ig domains vs. microbiome PC axes from beta-diversity PCoA analysis in the skeleton compartment for all and unique isoforms.</t>
-  </si>
-  <si>
     <t>skeleton_unweighted_unifrac</t>
   </si>
   <si>
     <t>skeleton_weighted_unifrac</t>
+  </si>
+  <si>
+    <t>Table S9A: Phylogenetic comparison of TIR, LRR, and Ig domains vs microbiome PC axes from beta-diversity PCoA analysis in all compartments for all unique isoforms</t>
+  </si>
+  <si>
+    <t>Table S9B: Phylogenetic comparison of TIR, LRR, and Ig domains vs microbiome PC axes from beta-diversity PCoA analysis in the mucus compartment for all unique isoforms</t>
+  </si>
+  <si>
+    <t>Table S9C: Phylogenetic comparison of TIR, LRR, and Ig domains vs microbiome PC axes from beta-diversity PCoA analysis in the tissue compartment for all unique isoforms</t>
+  </si>
+  <si>
+    <t>Table S9D: Phylogenetic comparison of TIR, LRR, and Ig domains vs microbiome PC axes from beta-diversity PCoA analysis in the skeletal compartment for all unique isoforms</t>
+  </si>
+  <si>
+    <t>Phylogenetic independent contranst results for TIR, LRR, and Ig domains for the microbiome compostion based on the first 3 PC axes (PC1, PC2, PC3) in the beta-diversity plots for unweighted and weighted Unifrac in the mucus compartment for the coral microbiome data collected during the Global Coral Microbiome Project. PIC analyses were run using microbiome data from each of the PC axes seperatly. All analyses were conducted using the phyloseq package in R. Outputs were also corrected for multiple comparisons by immune trait (eg TIR_total or TIR_total_unique).</t>
+  </si>
+  <si>
+    <t>Phylogenetic independent contranst results for TIR, LRR, and Ig domains for the microbiome compostion based on the first 3 PC axes (PC1, PC2, PC3) in the beta-diversity plot for unweighted and weighted unfrac in all compartments combined for the coral microbiome data collected during the Global Coral Microbiome Project. PIC analyses were run using microbiome data from each of the PC axes seperatly. All analyses were conducted using the phyloseq package in R. Outputs were also corrected for multiple comparisons by immune trait (eg TIR_total or TIR_total_unique).</t>
+  </si>
+  <si>
+    <t>Phylogenetic independent contranst results for TIR, LRR, and Ig domains for the microbiome compostion based on the first 3 PC axes (PC1, PC2, PC3) in the beta-diversity plot for unweighted and weighted UniFrac in the tissue compartment for the coral microbiome data collected during the Global Coral Microbiome Project. PIC analyses were run using microbiome data from each of the PC axes seperatly. All analyses were conducted using the phyloseq package in R. Outputs were also corrected for multiple comparisons by immune trait (eg TIR_total or TIR_total_unique).</t>
+  </si>
+  <si>
+    <t>Phylogenetic independent contranst results for TIR, LRR, and Ig domains for the microbiome compostion based on the first 3 PC axes (PC1, PC2, PC3) in the beta-diversity plot for unweighted and weighted UniFrac in the skeletal compartment for the coral microbiome data collected during the Global Coral Microbiome Project. PIC analyses were run using microbiome data from each of the PC axes seperatly. All analyses were conducted using the phyloseq package in R. Outputs were also corrected for multiple comparisons by immune trait (eg TIR_total or TIR_total_unique).</t>
   </si>
 </sst>
 </file>
@@ -252,15 +252,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="11" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -270,28 +277,12 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -608,8 +599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F45E0DC-CD8B-4D76-B79F-EC971B0A48B7}">
   <dimension ref="A1:T18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -628,938 +619,938 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
+      <c r="A1" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
     </row>
     <row r="2" spans="1:20" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
+      <c r="A2" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="4" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="5" t="s">
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="6" t="s">
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="8" t="s">
+      <c r="F4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="9" t="s">
+      <c r="K4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="O4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q4" s="10" t="s">
+      <c r="P4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="R4" s="10" t="s">
+      <c r="R4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="S4" s="10" t="s">
+      <c r="S4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="T4" s="10" t="s">
+      <c r="T4" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="6">
         <v>183</v>
       </c>
-      <c r="D5" s="11">
-        <v>11</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="12">
+      <c r="D5" s="6">
+        <v>11</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="7">
         <v>1.1794489999999999E-3</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="7">
         <v>0.70729628099999997</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="7">
         <v>0.04</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="7">
         <v>0.03</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="7">
         <v>0.01</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="8">
         <v>0.289524104</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="8">
         <v>0.123369654</v>
       </c>
-      <c r="M5" s="13">
-        <v>1</v>
-      </c>
-      <c r="N5" s="13">
+      <c r="M5" s="8">
+        <v>1</v>
+      </c>
+      <c r="N5" s="8">
         <v>0.30623359</v>
       </c>
-      <c r="O5" s="13">
+      <c r="O5" s="8">
         <v>0.30623359</v>
       </c>
-      <c r="P5" s="14">
+      <c r="P5" s="9">
         <v>3.7844530000000001E-3</v>
       </c>
-      <c r="Q5" s="14">
+      <c r="Q5" s="9">
         <v>0.62472918300000002</v>
       </c>
-      <c r="R5" s="14">
+      <c r="R5" s="9">
         <v>3.0275624000000001E-2</v>
       </c>
-      <c r="S5" s="14">
+      <c r="S5" s="9">
         <v>1.1353359E-2</v>
       </c>
-      <c r="T5" s="14">
+      <c r="T5" s="9">
         <v>5.0459370000000003E-3</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="6">
         <v>183</v>
       </c>
-      <c r="D6" s="11">
-        <v>11</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="12">
+      <c r="D6" s="6">
+        <v>11</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="7">
         <v>9.0543020000000002E-3</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="7">
         <v>0.54931643500000005</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="7">
         <v>0.28999999999999998</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="7">
         <v>0.22</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="7">
         <v>0.03</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="8">
         <v>1.1766807000000001E-2</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="8">
         <v>0.52413072900000002</v>
       </c>
-      <c r="M6" s="13">
+      <c r="M6" s="8">
         <v>9.4134460000000003E-2</v>
       </c>
-      <c r="N6" s="13">
+      <c r="N6" s="8">
         <v>9.4134460000000003E-2</v>
       </c>
-      <c r="O6" s="13">
+      <c r="O6" s="8">
         <v>9.4134460000000003E-2</v>
       </c>
-      <c r="P6" s="15">
+      <c r="P6" s="10">
         <v>5.4200000000000003E-5</v>
       </c>
-      <c r="Q6" s="14">
+      <c r="Q6" s="9">
         <v>0.84998311000000004</v>
       </c>
-      <c r="R6" s="14">
+      <c r="R6" s="9">
         <v>4.3360000000000002E-4</v>
       </c>
-      <c r="S6" s="14">
+      <c r="S6" s="9">
         <v>4.3360000000000002E-4</v>
       </c>
-      <c r="T6" s="14">
+      <c r="T6" s="9">
         <v>4.3360000000000002E-4</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="6">
         <v>183</v>
       </c>
-      <c r="D7" s="11">
-        <v>11</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="12">
+      <c r="D7" s="6">
+        <v>11</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="7">
         <v>0.15160236599999999</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="7">
         <v>0.214308938</v>
       </c>
-      <c r="H7" s="12">
-        <v>1</v>
-      </c>
-      <c r="I7" s="12">
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
         <v>0.93</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="7">
         <v>0.28999999999999998</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="8">
         <v>2.9432259999999998E-2</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="8">
         <v>0.42618720799999998</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="8">
         <v>0.23545807999999999</v>
       </c>
-      <c r="N7" s="13">
+      <c r="N7" s="8">
         <v>0.20602582</v>
       </c>
-      <c r="O7" s="13">
+      <c r="O7" s="8">
         <v>9.8464620000000003E-2</v>
       </c>
-      <c r="P7" s="14">
+      <c r="P7" s="9">
         <v>1.7800021999999999E-2</v>
       </c>
-      <c r="Q7" s="14">
+      <c r="Q7" s="9">
         <v>0.48183141800000001</v>
       </c>
-      <c r="R7" s="14">
+      <c r="R7" s="9">
         <v>0.14240017599999999</v>
       </c>
-      <c r="S7" s="14">
+      <c r="S7" s="9">
         <v>3.5600043999999997E-2</v>
       </c>
-      <c r="T7" s="14">
+      <c r="T7" s="9">
         <v>2.0342882E-2</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="6">
         <v>183</v>
       </c>
-      <c r="D8" s="11">
-        <v>11</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="12">
+      <c r="D8" s="6">
+        <v>11</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="7">
         <v>0.60997766600000003</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="7">
         <v>3.0093524E-2</v>
       </c>
-      <c r="H8" s="12">
-        <v>1</v>
-      </c>
-      <c r="I8" s="12">
+      <c r="H8" s="7">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7">
         <v>0.93</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="7">
         <v>0.77</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="8">
         <v>3.6924233000000001E-2</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L8" s="8">
         <v>0.39955669199999999</v>
       </c>
-      <c r="M8" s="13">
+      <c r="M8" s="8">
         <v>0.29539386000000001</v>
       </c>
-      <c r="N8" s="13">
+      <c r="N8" s="8">
         <v>0.2215454</v>
       </c>
-      <c r="O8" s="13">
+      <c r="O8" s="8">
         <v>9.8464620000000003E-2</v>
       </c>
-      <c r="P8" s="14">
+      <c r="P8" s="9">
         <v>0.115149955</v>
       </c>
-      <c r="Q8" s="14">
+      <c r="Q8" s="9">
         <v>0.25255728399999999</v>
       </c>
-      <c r="R8" s="14">
+      <c r="R8" s="9">
         <v>0.92119964399999998</v>
       </c>
-      <c r="S8" s="14">
+      <c r="S8" s="9">
         <v>0.115149955</v>
       </c>
-      <c r="T8" s="14">
+      <c r="T8" s="9">
         <v>0.115149956</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="6">
         <v>183</v>
       </c>
-      <c r="D9" s="11">
-        <v>11</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="12">
+      <c r="D9" s="6">
+        <v>11</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="7">
         <v>5.8708694999999998E-2</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="7">
         <v>0.342190881</v>
       </c>
-      <c r="H9" s="12">
-        <v>1</v>
-      </c>
-      <c r="I9" s="12">
+      <c r="H9" s="7">
+        <v>1</v>
+      </c>
+      <c r="I9" s="7">
         <v>0.93</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="7">
         <v>0.13</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="8">
         <v>0.19055460399999999</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L9" s="8">
         <v>0.18210868399999999</v>
       </c>
-      <c r="M9" s="13">
-        <v>1</v>
-      </c>
-      <c r="N9" s="13">
+      <c r="M9" s="8">
+        <v>1</v>
+      </c>
+      <c r="N9" s="8">
         <v>0.30623359</v>
       </c>
-      <c r="O9" s="13">
+      <c r="O9" s="8">
         <v>0.25407280999999998</v>
       </c>
-      <c r="P9" s="14">
+      <c r="P9" s="9">
         <v>2.7765899999999998E-4</v>
       </c>
-      <c r="Q9" s="14">
+      <c r="Q9" s="9">
         <v>0.78580419999999995</v>
       </c>
-      <c r="R9" s="14">
+      <c r="R9" s="9">
         <v>2.2212690000000001E-3</v>
       </c>
-      <c r="S9" s="14">
+      <c r="S9" s="9">
         <v>1.3882930000000001E-3</v>
       </c>
-      <c r="T9" s="14">
+      <c r="T9" s="9">
         <v>5.5531700000000005E-4</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="6">
         <v>183</v>
       </c>
-      <c r="D10" s="11">
-        <v>11</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="12">
+      <c r="D10" s="6">
+        <v>11</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="7">
         <v>0.83192819799999995</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="7">
         <v>5.2757849999999998E-3</v>
       </c>
-      <c r="H10" s="12">
-        <v>1</v>
-      </c>
-      <c r="I10" s="12">
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
         <v>0.93</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="7">
         <v>0.92</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="8">
         <v>0.19055460399999999</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L10" s="8">
         <v>0.18210868399999999</v>
       </c>
-      <c r="M10" s="13">
-        <v>1</v>
-      </c>
-      <c r="N10" s="13">
+      <c r="M10" s="8">
+        <v>1</v>
+      </c>
+      <c r="N10" s="8">
         <v>0.30623359</v>
       </c>
-      <c r="O10" s="13">
+      <c r="O10" s="8">
         <v>0.25407280999999998</v>
       </c>
-      <c r="P10" s="14">
+      <c r="P10" s="9">
         <v>2.7765899999999998E-4</v>
       </c>
-      <c r="Q10" s="14">
+      <c r="Q10" s="9">
         <v>0.78580419999999995</v>
       </c>
-      <c r="R10" s="14">
+      <c r="R10" s="9">
         <v>2.2212690000000001E-3</v>
       </c>
-      <c r="S10" s="14">
+      <c r="S10" s="9">
         <v>1.3882930000000001E-3</v>
       </c>
-      <c r="T10" s="14">
+      <c r="T10" s="9">
         <v>5.5531700000000005E-4</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="6">
         <v>183</v>
       </c>
-      <c r="D11" s="11">
-        <v>11</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="12">
+      <c r="D11" s="6">
+        <v>11</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="7">
         <v>3.1251439999999998E-3</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="7">
         <v>0.63963942799999995</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="7">
         <v>0.10000460799999999</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="7">
         <v>7.8128600000000006E-2</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="7">
         <v>1.2500575999999999E-2</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K11" s="8">
         <v>0.84825947999999995</v>
       </c>
-      <c r="L11" s="13">
+      <c r="L11" s="8">
         <v>4.2904579999999996E-3</v>
       </c>
-      <c r="M11" s="13">
-        <v>1</v>
-      </c>
-      <c r="N11" s="13">
+      <c r="M11" s="8">
+        <v>1</v>
+      </c>
+      <c r="N11" s="8">
         <v>0.84825950000000006</v>
       </c>
-      <c r="O11" s="13">
+      <c r="O11" s="8">
         <v>0.84825950000000006</v>
       </c>
-      <c r="P11" s="14">
+      <c r="P11" s="9">
         <v>2.4965002E-2</v>
       </c>
-      <c r="Q11" s="14">
+      <c r="Q11" s="9">
         <v>0.444919907</v>
       </c>
-      <c r="R11" s="14">
+      <c r="R11" s="9">
         <v>0.19972000000000001</v>
       </c>
-      <c r="S11" s="14">
+      <c r="S11" s="9">
         <v>0.19972000000000001</v>
       </c>
-      <c r="T11" s="14">
+      <c r="T11" s="9">
         <v>0.1022551</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="6">
         <v>183</v>
       </c>
-      <c r="D12" s="11">
-        <v>11</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="12">
+      <c r="D12" s="6">
+        <v>11</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="7">
         <v>8.1751265000000004E-2</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="7">
         <v>0.29897864000000002</v>
       </c>
-      <c r="H12" s="12">
-        <v>1</v>
-      </c>
-      <c r="I12" s="12">
+      <c r="H12" s="7">
+        <v>1</v>
+      </c>
+      <c r="I12" s="7">
         <v>0.93706456900000001</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="7">
         <v>0.18686003400000001</v>
       </c>
-      <c r="K12" s="13">
+      <c r="K12" s="8">
         <v>0.82520856399999998</v>
       </c>
-      <c r="L12" s="13">
+      <c r="L12" s="8">
         <v>5.7118769999999998E-3</v>
       </c>
-      <c r="M12" s="13">
-        <v>1</v>
-      </c>
-      <c r="N12" s="13">
+      <c r="M12" s="8">
+        <v>1</v>
+      </c>
+      <c r="N12" s="8">
         <v>0.84825950000000006</v>
       </c>
-      <c r="O12" s="13">
+      <c r="O12" s="8">
         <v>0.84825950000000006</v>
       </c>
-      <c r="P12" s="14">
+      <c r="P12" s="9">
         <v>0.497179541</v>
       </c>
-      <c r="Q12" s="14">
+      <c r="Q12" s="9">
         <v>5.2683862999999997E-2</v>
       </c>
-      <c r="R12" s="14">
-        <v>1</v>
-      </c>
-      <c r="S12" s="14">
+      <c r="R12" s="9">
+        <v>1</v>
+      </c>
+      <c r="S12" s="9">
         <v>0.86424840000000003</v>
       </c>
-      <c r="T12" s="14">
+      <c r="T12" s="9">
         <v>0.66290610000000005</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="6">
         <v>183</v>
       </c>
-      <c r="D13" s="11">
-        <v>11</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="12">
+      <c r="D13" s="6">
+        <v>11</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="7">
         <v>0.44025108099999999</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="7">
         <v>6.7540886999999994E-2</v>
       </c>
-      <c r="H13" s="12">
-        <v>1</v>
-      </c>
-      <c r="I13" s="12">
+      <c r="H13" s="7">
+        <v>1</v>
+      </c>
+      <c r="I13" s="7">
         <v>0.93706456900000001</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="7">
         <v>0.58700144099999996</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K13" s="8">
         <v>9.9070578000000006E-2</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L13" s="8">
         <v>0.27313156199999999</v>
       </c>
-      <c r="M13" s="13">
+      <c r="M13" s="8">
         <v>0.79256459999999995</v>
       </c>
-      <c r="N13" s="13">
+      <c r="N13" s="8">
         <v>0.69349400000000005</v>
       </c>
-      <c r="O13" s="13">
+      <c r="O13" s="8">
         <v>0.39628229999999998</v>
       </c>
-      <c r="P13" s="14">
+      <c r="P13" s="9">
         <v>0.60839838300000004</v>
       </c>
-      <c r="Q13" s="14">
+      <c r="Q13" s="9">
         <v>3.0356127E-2</v>
       </c>
-      <c r="R13" s="14">
-        <v>1</v>
-      </c>
-      <c r="S13" s="14">
+      <c r="R13" s="9">
+        <v>1</v>
+      </c>
+      <c r="S13" s="9">
         <v>0.86424840000000003</v>
       </c>
-      <c r="T13" s="14">
+      <c r="T13" s="9">
         <v>0.69531240000000005</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="6">
         <v>183</v>
       </c>
-      <c r="D14" s="11">
-        <v>11</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="12">
+      <c r="D14" s="6">
+        <v>11</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="7">
         <v>0.89524459000000001</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="7">
         <v>2.0340860000000001E-3</v>
       </c>
-      <c r="H14" s="12">
-        <v>1</v>
-      </c>
-      <c r="I14" s="12">
+      <c r="H14" s="7">
+        <v>1</v>
+      </c>
+      <c r="I14" s="7">
         <v>0.93706456900000001</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="7">
         <v>0.92412344800000001</v>
       </c>
-      <c r="K14" s="13">
+      <c r="K14" s="8">
         <v>2.6678371999999999E-2</v>
       </c>
-      <c r="L14" s="13">
+      <c r="L14" s="8">
         <v>0.43742704900000001</v>
       </c>
-      <c r="M14" s="13">
+      <c r="M14" s="8">
         <v>0.21342700000000001</v>
       </c>
-      <c r="N14" s="13">
+      <c r="N14" s="8">
         <v>0.21342700000000001</v>
       </c>
-      <c r="O14" s="13">
+      <c r="O14" s="8">
         <v>0.21342700000000001</v>
       </c>
-      <c r="P14" s="14">
+      <c r="P14" s="9">
         <v>0.864248354</v>
       </c>
-      <c r="Q14" s="14">
+      <c r="Q14" s="9">
         <v>3.4270220000000001E-3</v>
       </c>
-      <c r="R14" s="14">
-        <v>1</v>
-      </c>
-      <c r="S14" s="14">
+      <c r="R14" s="9">
+        <v>1</v>
+      </c>
+      <c r="S14" s="9">
         <v>0.86424840000000003</v>
       </c>
-      <c r="T14" s="14">
+      <c r="T14" s="9">
         <v>0.86424840000000003</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="6">
         <v>183</v>
       </c>
-      <c r="D15" s="11">
-        <v>11</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="12">
+      <c r="D15" s="6">
+        <v>11</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="7">
         <v>0.23538651299999999</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="7">
         <v>0.15230300299999999</v>
       </c>
-      <c r="H15" s="12">
-        <v>1</v>
-      </c>
-      <c r="I15" s="12">
+      <c r="H15" s="7">
+        <v>1</v>
+      </c>
+      <c r="I15" s="7">
         <v>0.93706456900000001</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="7">
         <v>0.37661842099999998</v>
       </c>
-      <c r="K15" s="13">
+      <c r="K15" s="8">
         <v>0.49339400999999999</v>
       </c>
-      <c r="L15" s="13">
+      <c r="L15" s="8">
         <v>5.3591320999999997E-2</v>
       </c>
-      <c r="M15" s="13">
-        <v>1</v>
-      </c>
-      <c r="N15" s="13">
+      <c r="M15" s="8">
+        <v>1</v>
+      </c>
+      <c r="N15" s="8">
         <v>0.84825950000000006</v>
       </c>
-      <c r="O15" s="13">
+      <c r="O15" s="8">
         <v>0.65785870000000002</v>
       </c>
-      <c r="P15" s="14">
+      <c r="P15" s="9">
         <v>5.4781702000000002E-2</v>
       </c>
-      <c r="Q15" s="14">
+      <c r="Q15" s="9">
         <v>0.35099686800000002</v>
       </c>
-      <c r="R15" s="14">
+      <c r="R15" s="9">
         <v>0.43825360000000002</v>
       </c>
-      <c r="S15" s="14">
+      <c r="S15" s="9">
         <v>0.25563770000000002</v>
       </c>
-      <c r="T15" s="14">
+      <c r="T15" s="9">
         <v>0.1022551</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="6">
         <v>183</v>
       </c>
-      <c r="D16" s="11">
-        <v>11</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="12">
+      <c r="D16" s="6">
+        <v>11</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="7">
         <v>0.70826022300000002</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="7">
         <v>1.6309041E-2</v>
       </c>
-      <c r="H16" s="12">
-        <v>1</v>
-      </c>
-      <c r="I16" s="12">
+      <c r="H16" s="7">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7">
         <v>0.93706456900000001</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="7">
         <v>0.87341269300000002</v>
       </c>
-      <c r="K16" s="13">
+      <c r="K16" s="8">
         <v>0.49339400999999999</v>
       </c>
-      <c r="L16" s="13">
+      <c r="L16" s="8">
         <v>5.3591320999999997E-2</v>
       </c>
-      <c r="M16" s="13">
-        <v>1</v>
-      </c>
-      <c r="N16" s="13">
+      <c r="M16" s="8">
+        <v>1</v>
+      </c>
+      <c r="N16" s="8">
         <v>0.84825950000000006</v>
       </c>
-      <c r="O16" s="13">
+      <c r="O16" s="8">
         <v>0.65785870000000002</v>
       </c>
-      <c r="P16" s="14">
+      <c r="P16" s="9">
         <v>5.4781702000000002E-2</v>
       </c>
-      <c r="Q16" s="14">
+      <c r="Q16" s="9">
         <v>0.35099686800000002</v>
       </c>
-      <c r="R16" s="14">
+      <c r="R16" s="9">
         <v>0.43825360000000002</v>
       </c>
-      <c r="S16" s="14">
+      <c r="S16" s="9">
         <v>0.25563770000000002</v>
       </c>
-      <c r="T16" s="14">
+      <c r="T16" s="9">
         <v>0.1022551</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="F3:J3"/>
     <mergeCell ref="K3:O3"/>
     <mergeCell ref="P3:T3"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A2:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1570,872 +1561,902 @@
   <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A2" sqref="A2:T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.21875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="36.44140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="2"/>
-    <col min="7" max="7" width="12.33203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.88671875" style="2" customWidth="1"/>
-    <col min="9" max="11" width="8.88671875" style="2"/>
-    <col min="12" max="12" width="12" style="2" customWidth="1"/>
-    <col min="13" max="13" width="10.21875" style="2" customWidth="1"/>
-    <col min="14" max="16" width="8.88671875" style="2"/>
-    <col min="17" max="17" width="12.44140625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="10.109375" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="23.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="12.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.88671875" style="1" customWidth="1"/>
+    <col min="9" max="11" width="8.88671875" style="1"/>
+    <col min="12" max="12" width="12" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.21875" style="1" customWidth="1"/>
+    <col min="14" max="16" width="8.88671875" style="1"/>
+    <col min="17" max="17" width="12.44140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.109375" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-    </row>
-    <row r="2" spans="1:20" s="17" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="A1" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+    </row>
+    <row r="2" spans="1:20" s="11" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="5" t="s">
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="6" t="s">
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="8" t="s">
+      <c r="F4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="9" t="s">
+      <c r="K4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="O4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q4" s="10" t="s">
+      <c r="P4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="R4" s="10" t="s">
+      <c r="R4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="S4" s="10" t="s">
+      <c r="S4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="T4" s="10" t="s">
+      <c r="T4" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="6">
         <v>61</v>
       </c>
-      <c r="D5" s="11">
-        <v>11</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="12">
+      <c r="D5" s="6">
+        <v>11</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="7">
         <v>0.62822277000000004</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="7">
         <v>2.7159111999999999E-2</v>
       </c>
-      <c r="H5" s="12">
-        <v>1</v>
-      </c>
-      <c r="I5" s="12">
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
         <v>0.93</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="7">
         <v>0.77</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="8">
         <v>0.96236527400000005</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="8">
         <v>2.6145600000000003E-4</v>
       </c>
-      <c r="M5" s="13">
-        <v>1</v>
-      </c>
-      <c r="N5" s="13">
+      <c r="M5" s="8">
+        <v>1</v>
+      </c>
+      <c r="N5" s="8">
         <v>0.96236529999999998</v>
       </c>
-      <c r="O5" s="13">
+      <c r="O5" s="8">
         <v>0.96236529999999998</v>
       </c>
-      <c r="P5" s="14">
+      <c r="P5" s="9">
         <v>7.8064859999999996E-3</v>
       </c>
-      <c r="Q5" s="14">
+      <c r="Q5" s="9">
         <v>0.56303531799999995</v>
       </c>
-      <c r="R5" s="15">
+      <c r="R5" s="10">
         <v>6.25E-2</v>
       </c>
-      <c r="S5" s="15">
+      <c r="S5" s="10">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="T5" s="15">
+      <c r="T5" s="10">
         <v>1.04E-2</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="11" t="s">
+      <c r="A6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="6">
         <v>61</v>
       </c>
-      <c r="D6" s="11">
-        <v>11</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="12">
+      <c r="D6" s="6">
+        <v>11</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="7">
         <v>0.93430057200000005</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="7">
         <v>7.9778800000000001E-4</v>
       </c>
-      <c r="H6" s="12">
-        <v>1</v>
-      </c>
-      <c r="I6" s="12">
+      <c r="H6" s="7">
+        <v>1</v>
+      </c>
+      <c r="I6" s="7">
         <v>0.93</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="7">
         <v>0.93</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="8">
         <v>0.150984537</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="8">
         <v>0.21488154800000001</v>
       </c>
-      <c r="M6" s="13">
-        <v>1</v>
-      </c>
-      <c r="N6" s="13">
+      <c r="M6" s="8">
+        <v>1</v>
+      </c>
+      <c r="N6" s="8">
         <v>0.96236529999999998</v>
       </c>
-      <c r="O6" s="13">
+      <c r="O6" s="8">
         <v>0.72991519999999999</v>
       </c>
-      <c r="P6" s="15">
+      <c r="P6" s="10">
         <v>1.4500000000000001E-6</v>
       </c>
-      <c r="Q6" s="14">
+      <c r="Q6" s="9">
         <v>0.93234181100000002</v>
       </c>
-      <c r="R6" s="15">
+      <c r="R6" s="10">
         <v>1.1600000000000001E-5</v>
       </c>
-      <c r="S6" s="15">
+      <c r="S6" s="10">
         <v>1.1600000000000001E-5</v>
       </c>
-      <c r="T6" s="15">
+      <c r="T6" s="10">
         <v>1.1600000000000001E-5</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="6">
         <v>61</v>
       </c>
-      <c r="D7" s="11">
-        <v>11</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="12">
+      <c r="D7" s="6">
+        <v>11</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="7">
         <v>0.233869303</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="7">
         <v>0.153212976</v>
       </c>
-      <c r="H7" s="12">
-        <v>1</v>
-      </c>
-      <c r="I7" s="12">
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
         <v>0.93</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="7">
         <v>0.36</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="8">
         <v>0.63867578800000002</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="8">
         <v>2.5558596999999999E-2</v>
       </c>
-      <c r="M7" s="13">
-        <v>1</v>
-      </c>
-      <c r="N7" s="13">
+      <c r="M7" s="8">
+        <v>1</v>
+      </c>
+      <c r="N7" s="8">
         <v>0.96236529999999998</v>
       </c>
-      <c r="O7" s="13">
+      <c r="O7" s="8">
         <v>0.72991519999999999</v>
       </c>
-      <c r="P7" s="14">
+      <c r="P7" s="9">
         <v>7.4918700000000001E-4</v>
       </c>
-      <c r="Q7" s="14">
+      <c r="Q7" s="9">
         <v>0.734509572</v>
       </c>
-      <c r="R7" s="15">
+      <c r="R7" s="10">
         <v>5.9899999999999997E-3</v>
       </c>
-      <c r="S7" s="15">
+      <c r="S7" s="10">
         <v>5.2399999999999999E-3</v>
       </c>
-      <c r="T7" s="15">
+      <c r="T7" s="10">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="11" t="s">
+      <c r="A8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="6">
         <v>61</v>
       </c>
-      <c r="D8" s="11">
-        <v>11</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="12">
+      <c r="D8" s="6">
+        <v>11</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="7">
         <v>5.1221664E-2</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="7">
         <v>0.35946421499999998</v>
       </c>
-      <c r="H8" s="12">
-        <v>1</v>
-      </c>
-      <c r="I8" s="12">
+      <c r="H8" s="7">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7">
         <v>0.93</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="7">
         <v>0.12</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="8">
         <v>0.594917798</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L8" s="8">
         <v>3.2654844000000002E-2</v>
       </c>
-      <c r="M8" s="13">
-        <v>1</v>
-      </c>
-      <c r="N8" s="13">
+      <c r="M8" s="8">
+        <v>1</v>
+      </c>
+      <c r="N8" s="8">
         <v>0.96236529999999998</v>
       </c>
-      <c r="O8" s="13">
+      <c r="O8" s="8">
         <v>0.72991519999999999</v>
       </c>
-      <c r="P8" s="14">
+      <c r="P8" s="9">
         <v>1.0483961E-2</v>
       </c>
-      <c r="Q8" s="14">
+      <c r="Q8" s="9">
         <v>0.53537547799999996</v>
       </c>
-      <c r="R8" s="15">
+      <c r="R8" s="10">
         <v>8.3900000000000002E-2</v>
       </c>
-      <c r="S8" s="15">
+      <c r="S8" s="10">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="T8" s="15">
+      <c r="T8" s="10">
         <v>1.2E-2</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="6">
         <v>61</v>
       </c>
-      <c r="D9" s="11">
-        <v>11</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="12">
+      <c r="D9" s="6">
+        <v>11</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="7">
         <v>0.44397511899999997</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="7">
         <v>6.6485206000000005E-2</v>
       </c>
-      <c r="H9" s="12">
-        <v>1</v>
-      </c>
-      <c r="I9" s="12">
+      <c r="H9" s="7">
+        <v>1</v>
+      </c>
+      <c r="I9" s="7">
         <v>0.93</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="7">
         <v>0.59</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="8">
         <v>0.50452619200000004</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L9" s="8">
         <v>5.0953248E-2</v>
       </c>
-      <c r="M9" s="13">
-        <v>1</v>
-      </c>
-      <c r="N9" s="13">
+      <c r="M9" s="8">
+        <v>1</v>
+      </c>
+      <c r="N9" s="8">
         <v>0.96236529999999998</v>
       </c>
-      <c r="O9" s="13">
+      <c r="O9" s="8">
         <v>0.72991519999999999</v>
       </c>
-      <c r="P9" s="14">
+      <c r="P9" s="9">
         <v>4.3857319999999998E-3</v>
       </c>
-      <c r="Q9" s="14">
+      <c r="Q9" s="9">
         <v>0.61285526400000001</v>
       </c>
-      <c r="R9" s="15">
+      <c r="R9" s="10">
         <v>3.5099999999999999E-2</v>
       </c>
-      <c r="S9" s="15">
+      <c r="S9" s="10">
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="T9" s="15">
+      <c r="T9" s="10">
         <v>7.0200000000000002E-3</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="6">
         <v>61</v>
       </c>
-      <c r="D10" s="11">
-        <v>11</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="12">
+      <c r="D10" s="6">
+        <v>11</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="7">
         <v>1.8391246999999999E-2</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="7">
         <v>0.47835861899999998</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="7">
         <v>0.59</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="7">
         <v>0.42</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="7">
         <v>0.06</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="8">
         <v>0.50452619200000004</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L10" s="8">
         <v>5.0953248E-2</v>
       </c>
-      <c r="M10" s="13">
-        <v>1</v>
-      </c>
-      <c r="N10" s="13">
+      <c r="M10" s="8">
+        <v>1</v>
+      </c>
+      <c r="N10" s="8">
         <v>0.96236529999999998</v>
       </c>
-      <c r="O10" s="13">
+      <c r="O10" s="8">
         <v>0.72991519999999999</v>
       </c>
-      <c r="P10" s="14">
+      <c r="P10" s="9">
         <v>4.3857319999999998E-3</v>
       </c>
-      <c r="Q10" s="14">
+      <c r="Q10" s="9">
         <v>0.61285526400000001</v>
       </c>
-      <c r="R10" s="15">
+      <c r="R10" s="10">
         <v>3.5099999999999999E-2</v>
       </c>
-      <c r="S10" s="15">
+      <c r="S10" s="10">
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="T10" s="15">
+      <c r="T10" s="10">
         <v>7.0200000000000002E-3</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="11" t="s">
+      <c r="A11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="6">
         <v>61</v>
       </c>
-      <c r="D11" s="11">
-        <v>11</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="12">
+      <c r="D11" s="6">
+        <v>11</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="7">
         <v>2.3437311999999998E-2</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="7">
         <v>0.451971664</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="7">
         <v>0.74999398100000003</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="7">
         <v>0.51562086200000001</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="7">
         <v>6.8181271000000002E-2</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K11" s="8">
         <v>4.8972160000000002E-3</v>
       </c>
-      <c r="L11" s="13">
+      <c r="L11" s="8">
         <v>0.60374660700000005</v>
       </c>
-      <c r="M11" s="13">
+      <c r="M11" s="8">
         <v>3.9177727000000002E-2</v>
       </c>
-      <c r="N11" s="13">
+      <c r="N11" s="8">
         <v>2.9383295E-2</v>
       </c>
-      <c r="O11" s="13">
+      <c r="O11" s="8">
         <v>1.3059242E-2</v>
       </c>
-      <c r="P11" s="14">
+      <c r="P11" s="9">
         <v>1.3978160000000001E-3</v>
       </c>
-      <c r="Q11" s="14">
+      <c r="Q11" s="9">
         <v>0.696440854</v>
       </c>
-      <c r="R11" s="14">
+      <c r="R11" s="9">
         <v>1.1182529E-2</v>
       </c>
-      <c r="S11" s="14">
+      <c r="S11" s="9">
         <v>5.5912649999999998E-3</v>
       </c>
-      <c r="T11" s="15">
+      <c r="T11" s="10">
         <v>2.2399999999999998E-3</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="11" t="s">
+      <c r="A12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="6">
         <v>61</v>
       </c>
-      <c r="D12" s="11">
-        <v>11</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="12">
+      <c r="D12" s="6">
+        <v>11</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="7">
         <v>2.9792275E-2</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="7">
         <v>0.42478369700000002</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="7">
         <v>0.95335280099999997</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="7">
         <v>0.595845501</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="7">
         <v>7.3334831000000003E-2</v>
       </c>
-      <c r="K12" s="13">
+      <c r="K12" s="8">
         <v>1.0130609E-2</v>
       </c>
-      <c r="L12" s="13">
+      <c r="L12" s="8">
         <v>0.53866961199999996</v>
       </c>
-      <c r="M12" s="13">
+      <c r="M12" s="8">
         <v>8.1044870000000005E-2</v>
       </c>
-      <c r="N12" s="13">
+      <c r="N12" s="8">
         <v>5.0653044000000001E-2</v>
       </c>
-      <c r="O12" s="13">
+      <c r="O12" s="8">
         <v>2.0261217000000002E-2</v>
       </c>
-      <c r="P12" s="14">
+      <c r="P12" s="9">
         <v>2.515228E-3</v>
       </c>
-      <c r="Q12" s="14">
+      <c r="Q12" s="9">
         <v>0.65588117999999995</v>
       </c>
-      <c r="R12" s="14">
+      <c r="R12" s="9">
         <v>2.0121822000000001E-2</v>
       </c>
-      <c r="S12" s="14">
+      <c r="S12" s="9">
         <v>7.5456830000000001E-3</v>
       </c>
-      <c r="T12" s="15">
+      <c r="T12" s="10">
         <v>3.3500000000000001E-3</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="11" t="s">
+      <c r="A13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="6">
         <v>61</v>
       </c>
-      <c r="D13" s="11">
-        <v>11</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="12">
+      <c r="D13" s="6">
+        <v>11</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="7">
         <v>0.37339408099999999</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="7">
         <v>8.8819624E-2</v>
       </c>
-      <c r="H13" s="12">
-        <v>1</v>
-      </c>
-      <c r="I13" s="12">
+      <c r="H13" s="7">
+        <v>1</v>
+      </c>
+      <c r="I13" s="7">
         <v>0.93706456900000001</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="7">
         <v>0.543118663</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K13" s="8">
         <v>2.16765E-4</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L13" s="8">
         <v>0.79701790900000002</v>
       </c>
-      <c r="M13" s="13">
+      <c r="M13" s="8">
         <v>1.7341240000000001E-3</v>
       </c>
-      <c r="N13" s="13">
+      <c r="N13" s="8">
         <v>1.7341240000000001E-3</v>
       </c>
-      <c r="O13" s="13">
+      <c r="O13" s="8">
         <v>1.7341240000000001E-3</v>
       </c>
-      <c r="P13" s="14">
+      <c r="P13" s="9">
         <v>9.5104906000000003E-2</v>
       </c>
-      <c r="Q13" s="14">
+      <c r="Q13" s="9">
         <v>0.27866994899999997</v>
       </c>
-      <c r="R13" s="14">
+      <c r="R13" s="9">
         <v>0.76083925100000005</v>
       </c>
-      <c r="S13" s="14">
+      <c r="S13" s="9">
         <v>0.19020981300000001</v>
       </c>
-      <c r="T13" s="15">
+      <c r="T13" s="10">
         <v>0.109</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="11" t="s">
+      <c r="A14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="6">
         <v>61</v>
       </c>
-      <c r="D14" s="11">
-        <v>11</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="12">
+      <c r="D14" s="6">
+        <v>11</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="7">
         <v>0.88956515899999999</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="7">
         <v>2.2618270000000001E-3</v>
       </c>
-      <c r="H14" s="12">
-        <v>1</v>
-      </c>
-      <c r="I14" s="12">
+      <c r="H14" s="7">
+        <v>1</v>
+      </c>
+      <c r="I14" s="7">
         <v>0.93706456900000001</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="7">
         <v>0.92412344800000001</v>
       </c>
-      <c r="K14" s="13">
+      <c r="K14" s="8">
         <v>4.5907589999999998E-3</v>
       </c>
-      <c r="L14" s="13">
+      <c r="L14" s="8">
         <v>0.60910626899999998</v>
       </c>
-      <c r="M14" s="13">
+      <c r="M14" s="8">
         <v>3.6726072999999998E-2</v>
       </c>
-      <c r="N14" s="13">
+      <c r="N14" s="8">
         <v>2.9383295E-2</v>
       </c>
-      <c r="O14" s="13">
+      <c r="O14" s="8">
         <v>1.3059242E-2</v>
       </c>
-      <c r="P14" s="14">
+      <c r="P14" s="9">
         <v>0.40783428100000002</v>
       </c>
-      <c r="Q14" s="14">
+      <c r="Q14" s="9">
         <v>7.7281437999999994E-2</v>
       </c>
-      <c r="R14" s="14">
-        <v>1</v>
-      </c>
-      <c r="S14" s="14">
+      <c r="R14" s="9">
+        <v>1</v>
+      </c>
+      <c r="S14" s="9">
         <v>0.40783428100000002</v>
       </c>
-      <c r="T14" s="15">
+      <c r="T14" s="10">
         <v>0.40799999999999997</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="11" t="s">
+      <c r="A15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="6">
         <v>61</v>
       </c>
-      <c r="D15" s="11">
-        <v>11</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="12">
+      <c r="D15" s="6">
+        <v>11</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="7">
         <v>0.18424826</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="7">
         <v>0.18685905</v>
       </c>
-      <c r="H15" s="12">
-        <v>1</v>
-      </c>
-      <c r="I15" s="12">
+      <c r="H15" s="7">
+        <v>1</v>
+      </c>
+      <c r="I15" s="7">
         <v>0.93706456900000001</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="7">
         <v>0.32755246100000002</v>
       </c>
-      <c r="K15" s="13">
+      <c r="K15" s="8">
         <v>3.4067069999999998E-2</v>
       </c>
-      <c r="L15" s="13">
+      <c r="L15" s="8">
         <v>0.40912309899999999</v>
       </c>
-      <c r="M15" s="13">
+      <c r="M15" s="8">
         <v>0.27253656399999998</v>
       </c>
-      <c r="N15" s="13">
+      <c r="N15" s="8">
         <v>6.8134140999999995E-2</v>
       </c>
-      <c r="O15" s="13">
+      <c r="O15" s="8">
         <v>3.8933795E-2</v>
       </c>
-      <c r="P15" s="15">
+      <c r="P15" s="10">
         <v>3.8699999999999999E-5</v>
       </c>
-      <c r="Q15" s="14">
+      <c r="Q15" s="9">
         <v>0.86066496100000001</v>
       </c>
-      <c r="R15" s="14">
+      <c r="R15" s="9">
         <v>3.0939599999999998E-4</v>
       </c>
-      <c r="S15" s="14">
+      <c r="S15" s="9">
         <v>1.9337299999999999E-4</v>
       </c>
-      <c r="T15" s="15">
+      <c r="T15" s="10">
         <v>7.7299999999999995E-5</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="11" t="s">
+      <c r="A16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="6">
         <v>61</v>
       </c>
-      <c r="D16" s="11">
-        <v>11</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="12">
+      <c r="D16" s="6">
+        <v>11</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="7">
         <v>0.83395642999999997</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="7">
         <v>5.1476849999999999E-3</v>
       </c>
-      <c r="H16" s="12">
-        <v>1</v>
-      </c>
-      <c r="I16" s="12">
+      <c r="H16" s="7">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7">
         <v>0.93706456900000001</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="7">
         <v>0.92412344800000001</v>
       </c>
-      <c r="K16" s="13">
+      <c r="K16" s="8">
         <v>3.4067069999999998E-2</v>
       </c>
-      <c r="L16" s="13">
+      <c r="L16" s="8">
         <v>0.40912309899999999</v>
       </c>
-      <c r="M16" s="13">
+      <c r="M16" s="8">
         <v>0.27253656399999998</v>
       </c>
-      <c r="N16" s="13">
+      <c r="N16" s="8">
         <v>6.8134140999999995E-2</v>
       </c>
-      <c r="O16" s="13">
+      <c r="O16" s="8">
         <v>3.8933795E-2</v>
       </c>
-      <c r="P16" s="15">
+      <c r="P16" s="10">
         <v>3.8699999999999999E-5</v>
       </c>
-      <c r="Q16" s="14">
+      <c r="Q16" s="9">
         <v>0.86066496100000001</v>
       </c>
-      <c r="R16" s="14">
+      <c r="R16" s="9">
         <v>3.0939599999999998E-4</v>
       </c>
-      <c r="S16" s="14">
+      <c r="S16" s="9">
         <v>1.9337299999999999E-4</v>
       </c>
-      <c r="T16" s="15">
+      <c r="T16" s="10">
         <v>7.7299999999999995E-5</v>
       </c>
     </row>
@@ -2444,10 +2465,11 @@
     <mergeCell ref="F3:J3"/>
     <mergeCell ref="K3:O3"/>
     <mergeCell ref="P3:T3"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A2:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2456,872 +2478,902 @@
   <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A2" sqref="A2:T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.21875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="34" style="2" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="2"/>
-    <col min="7" max="7" width="13.21875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9.77734375" style="2" customWidth="1"/>
-    <col min="9" max="11" width="8.88671875" style="2"/>
-    <col min="12" max="12" width="13.21875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="9.88671875" style="2" customWidth="1"/>
-    <col min="14" max="16" width="8.88671875" style="2"/>
-    <col min="17" max="17" width="13.109375" style="2" customWidth="1"/>
-    <col min="18" max="18" width="10" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="23" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="13.21875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.77734375" style="1" customWidth="1"/>
+    <col min="9" max="11" width="8.88671875" style="1"/>
+    <col min="12" max="12" width="13.21875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.88671875" style="1" customWidth="1"/>
+    <col min="14" max="16" width="8.88671875" style="1"/>
+    <col min="17" max="17" width="13.109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
+      <c r="A1" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
     </row>
     <row r="2" spans="1:20" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
+      <c r="A2" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="5" t="s">
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="6" t="s">
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="8" t="s">
+      <c r="F4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="9" t="s">
+      <c r="K4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="O4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q4" s="10" t="s">
+      <c r="P4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="R4" s="10" t="s">
+      <c r="R4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="S4" s="10" t="s">
+      <c r="S4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="T4" s="10" t="s">
+      <c r="T4" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="6">
         <v>62</v>
       </c>
-      <c r="D5" s="11">
-        <v>11</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="12">
+      <c r="D5" s="6">
+        <v>11</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="7">
         <v>2.3437311999999998E-2</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="7">
         <v>0.451971664</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="7">
         <v>0.75</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="7">
         <v>0.52</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="7">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="8">
         <v>4.8972160000000002E-3</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="8">
         <v>0.60374660700000005</v>
       </c>
-      <c r="M5" s="13">
+      <c r="M5" s="8">
         <v>3.9177727000000002E-2</v>
       </c>
-      <c r="N5" s="13">
+      <c r="N5" s="8">
         <v>2.9383295E-2</v>
       </c>
-      <c r="O5" s="13">
+      <c r="O5" s="8">
         <v>1.3059242E-2</v>
       </c>
-      <c r="P5" s="14">
+      <c r="P5" s="9">
         <v>1.3978160000000001E-3</v>
       </c>
-      <c r="Q5" s="14">
+      <c r="Q5" s="9">
         <v>0.696440854</v>
       </c>
-      <c r="R5" s="14">
+      <c r="R5" s="9">
         <v>1.1182529E-2</v>
       </c>
-      <c r="S5" s="14">
+      <c r="S5" s="9">
         <v>5.5912649999999998E-3</v>
       </c>
-      <c r="T5" s="15">
+      <c r="T5" s="10">
         <v>2.2399999999999998E-3</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="11" t="s">
+      <c r="A6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="6">
         <v>62</v>
       </c>
-      <c r="D6" s="11">
-        <v>11</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="12">
+      <c r="D6" s="6">
+        <v>11</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="7">
         <v>2.9792275E-2</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="7">
         <v>0.42478369700000002</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="7">
         <v>0.95</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="7">
         <v>0.63</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="7">
         <v>0.08</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="8">
         <v>1.0130609E-2</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="8">
         <v>0.53866961199999996</v>
       </c>
-      <c r="M6" s="13">
+      <c r="M6" s="8">
         <v>8.1044870000000005E-2</v>
       </c>
-      <c r="N6" s="13">
+      <c r="N6" s="8">
         <v>5.0653044000000001E-2</v>
       </c>
-      <c r="O6" s="13">
+      <c r="O6" s="8">
         <v>2.0261217000000002E-2</v>
       </c>
-      <c r="P6" s="14">
+      <c r="P6" s="9">
         <v>2.515228E-3</v>
       </c>
-      <c r="Q6" s="14">
+      <c r="Q6" s="9">
         <v>0.65588117999999995</v>
       </c>
-      <c r="R6" s="14">
+      <c r="R6" s="9">
         <v>2.0121822000000001E-2</v>
       </c>
-      <c r="S6" s="14">
+      <c r="S6" s="9">
         <v>7.5456830000000001E-3</v>
       </c>
-      <c r="T6" s="15">
+      <c r="T6" s="10">
         <v>3.3500000000000001E-3</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="6">
         <v>62</v>
       </c>
-      <c r="D7" s="11">
-        <v>11</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="12">
+      <c r="D7" s="6">
+        <v>11</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="7">
         <v>0.37339408099999999</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="7">
         <v>8.8819624E-2</v>
       </c>
-      <c r="H7" s="12">
-        <v>1</v>
-      </c>
-      <c r="I7" s="12">
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
         <v>0.93</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="7">
         <v>0.54</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="8">
         <v>2.16765E-4</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="8">
         <v>0.79701790900000002</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="8">
         <v>1.7341240000000001E-3</v>
       </c>
-      <c r="N7" s="13">
+      <c r="N7" s="8">
         <v>1.7341240000000001E-3</v>
       </c>
-      <c r="O7" s="13">
+      <c r="O7" s="8">
         <v>1.7341240000000001E-3</v>
       </c>
-      <c r="P7" s="14">
+      <c r="P7" s="9">
         <v>9.5104906000000003E-2</v>
       </c>
-      <c r="Q7" s="14">
+      <c r="Q7" s="9">
         <v>0.27866994899999997</v>
       </c>
-      <c r="R7" s="14">
+      <c r="R7" s="9">
         <v>0.76083925100000005</v>
       </c>
-      <c r="S7" s="14">
+      <c r="S7" s="9">
         <v>0.19020981300000001</v>
       </c>
-      <c r="T7" s="15">
+      <c r="T7" s="10">
         <v>0.109</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="11" t="s">
+      <c r="A8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="6">
         <v>62</v>
       </c>
-      <c r="D8" s="11">
-        <v>11</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="12">
+      <c r="D8" s="6">
+        <v>11</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="7">
         <v>0.88956515899999999</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="7">
         <v>2.2618270000000001E-3</v>
       </c>
-      <c r="H8" s="12">
-        <v>1</v>
-      </c>
-      <c r="I8" s="12">
+      <c r="H8" s="7">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7">
         <v>0.93</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="7">
         <v>0.92</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="8">
         <v>4.5907589999999998E-3</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L8" s="8">
         <v>0.60910626899999998</v>
       </c>
-      <c r="M8" s="13">
+      <c r="M8" s="8">
         <v>3.6726072999999998E-2</v>
       </c>
-      <c r="N8" s="13">
+      <c r="N8" s="8">
         <v>2.9383295E-2</v>
       </c>
-      <c r="O8" s="13">
+      <c r="O8" s="8">
         <v>1.3059242E-2</v>
       </c>
-      <c r="P8" s="14">
+      <c r="P8" s="9">
         <v>0.40783428100000002</v>
       </c>
-      <c r="Q8" s="14">
+      <c r="Q8" s="9">
         <v>7.7281437999999994E-2</v>
       </c>
-      <c r="R8" s="14">
-        <v>1</v>
-      </c>
-      <c r="S8" s="14">
+      <c r="R8" s="9">
+        <v>1</v>
+      </c>
+      <c r="S8" s="9">
         <v>0.40783428100000002</v>
       </c>
-      <c r="T8" s="15">
+      <c r="T8" s="10">
         <v>0.40799999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="6">
         <v>62</v>
       </c>
-      <c r="D9" s="11">
-        <v>11</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="12">
+      <c r="D9" s="6">
+        <v>11</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="7">
         <v>0.18424826</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="7">
         <v>0.18685905</v>
       </c>
-      <c r="H9" s="12">
-        <v>1</v>
-      </c>
-      <c r="I9" s="12">
+      <c r="H9" s="7">
+        <v>1</v>
+      </c>
+      <c r="I9" s="7">
         <v>0.93</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="7">
         <v>0.33</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="8">
         <v>3.4067069999999998E-2</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L9" s="8">
         <v>0.40912309899999999</v>
       </c>
-      <c r="M9" s="13">
+      <c r="M9" s="8">
         <v>0.27253656399999998</v>
       </c>
-      <c r="N9" s="13">
+      <c r="N9" s="8">
         <v>6.8134140999999995E-2</v>
       </c>
-      <c r="O9" s="13">
+      <c r="O9" s="8">
         <v>3.8933795E-2</v>
       </c>
-      <c r="P9" s="15">
+      <c r="P9" s="10">
         <v>3.8699999999999999E-5</v>
       </c>
-      <c r="Q9" s="14">
+      <c r="Q9" s="9">
         <v>0.86066496100000001</v>
       </c>
-      <c r="R9" s="14">
+      <c r="R9" s="9">
         <v>3.0939599999999998E-4</v>
       </c>
-      <c r="S9" s="14">
+      <c r="S9" s="9">
         <v>1.9337299999999999E-4</v>
       </c>
-      <c r="T9" s="15">
+      <c r="T9" s="10">
         <v>7.7299999999999995E-5</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="6">
         <v>62</v>
       </c>
-      <c r="D10" s="11">
-        <v>11</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="12">
+      <c r="D10" s="6">
+        <v>11</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="7">
         <v>0.83395642999999997</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="7">
         <v>5.1476849999999999E-3</v>
       </c>
-      <c r="H10" s="12">
-        <v>1</v>
-      </c>
-      <c r="I10" s="12">
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
         <v>0.93</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="7">
         <v>0.92</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="8">
         <v>3.4067069999999998E-2</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L10" s="8">
         <v>0.40912309899999999</v>
       </c>
-      <c r="M10" s="13">
+      <c r="M10" s="8">
         <v>0.27253656399999998</v>
       </c>
-      <c r="N10" s="13">
+      <c r="N10" s="8">
         <v>6.8134140999999995E-2</v>
       </c>
-      <c r="O10" s="13">
+      <c r="O10" s="8">
         <v>3.8933795E-2</v>
       </c>
-      <c r="P10" s="15">
+      <c r="P10" s="10">
         <v>3.8699999999999999E-5</v>
       </c>
-      <c r="Q10" s="14">
+      <c r="Q10" s="9">
         <v>0.86066496100000001</v>
       </c>
-      <c r="R10" s="14">
+      <c r="R10" s="9">
         <v>3.0939599999999998E-4</v>
       </c>
-      <c r="S10" s="14">
+      <c r="S10" s="9">
         <v>1.9337299999999999E-4</v>
       </c>
-      <c r="T10" s="15">
+      <c r="T10" s="10">
         <v>7.7299999999999995E-5</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="11" t="s">
+      <c r="A11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="6">
         <v>62</v>
       </c>
-      <c r="D11" s="11">
-        <v>11</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="12">
+      <c r="D11" s="6">
+        <v>11</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="7">
         <v>2.3437311999999998E-2</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="7">
         <v>0.451971664</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="7">
         <v>0.74999398100000003</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="7">
         <v>0.51562086200000001</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="7">
         <v>6.8181271000000002E-2</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K11" s="8">
         <v>4.8972160000000002E-3</v>
       </c>
-      <c r="L11" s="13">
+      <c r="L11" s="8">
         <v>0.60374660700000005</v>
       </c>
-      <c r="M11" s="13">
+      <c r="M11" s="8">
         <v>3.9177727000000002E-2</v>
       </c>
-      <c r="N11" s="13">
+      <c r="N11" s="8">
         <v>2.9383295E-2</v>
       </c>
-      <c r="O11" s="13">
+      <c r="O11" s="8">
         <v>1.3059242E-2</v>
       </c>
-      <c r="P11" s="14">
+      <c r="P11" s="9">
         <v>1.3978160000000001E-3</v>
       </c>
-      <c r="Q11" s="14">
+      <c r="Q11" s="9">
         <v>0.696440854</v>
       </c>
-      <c r="R11" s="14">
+      <c r="R11" s="9">
         <v>1.1182529E-2</v>
       </c>
-      <c r="S11" s="14">
+      <c r="S11" s="9">
         <v>5.5912649999999998E-3</v>
       </c>
-      <c r="T11" s="15">
+      <c r="T11" s="10">
         <v>2.2399999999999998E-3</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="11" t="s">
+      <c r="A12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="6">
         <v>62</v>
       </c>
-      <c r="D12" s="11">
-        <v>11</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="12">
+      <c r="D12" s="6">
+        <v>11</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="7">
         <v>2.9792275E-2</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="7">
         <v>0.42478369700000002</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="7">
         <v>0.95335280099999997</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="7">
         <v>0.595845501</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="7">
         <v>7.3334831000000003E-2</v>
       </c>
-      <c r="K12" s="13">
+      <c r="K12" s="8">
         <v>1.0130609E-2</v>
       </c>
-      <c r="L12" s="13">
+      <c r="L12" s="8">
         <v>0.53866961199999996</v>
       </c>
-      <c r="M12" s="13">
+      <c r="M12" s="8">
         <v>8.1044870000000005E-2</v>
       </c>
-      <c r="N12" s="13">
+      <c r="N12" s="8">
         <v>5.0653044000000001E-2</v>
       </c>
-      <c r="O12" s="13">
+      <c r="O12" s="8">
         <v>2.0261217000000002E-2</v>
       </c>
-      <c r="P12" s="14">
+      <c r="P12" s="9">
         <v>2.515228E-3</v>
       </c>
-      <c r="Q12" s="14">
+      <c r="Q12" s="9">
         <v>0.65588117999999995</v>
       </c>
-      <c r="R12" s="14">
+      <c r="R12" s="9">
         <v>2.0121822000000001E-2</v>
       </c>
-      <c r="S12" s="14">
+      <c r="S12" s="9">
         <v>7.5456830000000001E-3</v>
       </c>
-      <c r="T12" s="15">
+      <c r="T12" s="10">
         <v>3.3500000000000001E-3</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="11" t="s">
+      <c r="A13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="6">
         <v>62</v>
       </c>
-      <c r="D13" s="11">
-        <v>11</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="12">
+      <c r="D13" s="6">
+        <v>11</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="7">
         <v>0.37339408099999999</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="7">
         <v>8.8819624E-2</v>
       </c>
-      <c r="H13" s="12">
-        <v>1</v>
-      </c>
-      <c r="I13" s="12">
+      <c r="H13" s="7">
+        <v>1</v>
+      </c>
+      <c r="I13" s="7">
         <v>0.93706456900000001</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="7">
         <v>0.543118663</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K13" s="8">
         <v>2.16765E-4</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L13" s="8">
         <v>0.79701790900000002</v>
       </c>
-      <c r="M13" s="13">
+      <c r="M13" s="8">
         <v>1.7341240000000001E-3</v>
       </c>
-      <c r="N13" s="13">
+      <c r="N13" s="8">
         <v>1.7341240000000001E-3</v>
       </c>
-      <c r="O13" s="13">
+      <c r="O13" s="8">
         <v>1.7341240000000001E-3</v>
       </c>
-      <c r="P13" s="14">
+      <c r="P13" s="9">
         <v>9.5104906000000003E-2</v>
       </c>
-      <c r="Q13" s="14">
+      <c r="Q13" s="9">
         <v>0.27866994899999997</v>
       </c>
-      <c r="R13" s="14">
+      <c r="R13" s="9">
         <v>0.76083925100000005</v>
       </c>
-      <c r="S13" s="14">
+      <c r="S13" s="9">
         <v>0.19020981300000001</v>
       </c>
-      <c r="T13" s="15">
+      <c r="T13" s="10">
         <v>0.109</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="11" t="s">
+      <c r="A14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="6">
         <v>62</v>
       </c>
-      <c r="D14" s="11">
-        <v>11</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="12">
+      <c r="D14" s="6">
+        <v>11</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="7">
         <v>0.88956515899999999</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="7">
         <v>2.2618270000000001E-3</v>
       </c>
-      <c r="H14" s="12">
-        <v>1</v>
-      </c>
-      <c r="I14" s="12">
+      <c r="H14" s="7">
+        <v>1</v>
+      </c>
+      <c r="I14" s="7">
         <v>0.93706456900000001</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="7">
         <v>0.92412344800000001</v>
       </c>
-      <c r="K14" s="13">
+      <c r="K14" s="8">
         <v>4.5907589999999998E-3</v>
       </c>
-      <c r="L14" s="13">
+      <c r="L14" s="8">
         <v>0.60910626899999998</v>
       </c>
-      <c r="M14" s="13">
+      <c r="M14" s="8">
         <v>3.6726072999999998E-2</v>
       </c>
-      <c r="N14" s="13">
+      <c r="N14" s="8">
         <v>2.9383295E-2</v>
       </c>
-      <c r="O14" s="13">
+      <c r="O14" s="8">
         <v>1.3059242E-2</v>
       </c>
-      <c r="P14" s="14">
+      <c r="P14" s="9">
         <v>0.40783428100000002</v>
       </c>
-      <c r="Q14" s="14">
+      <c r="Q14" s="9">
         <v>7.7281437999999994E-2</v>
       </c>
-      <c r="R14" s="14">
-        <v>1</v>
-      </c>
-      <c r="S14" s="14">
+      <c r="R14" s="9">
+        <v>1</v>
+      </c>
+      <c r="S14" s="9">
         <v>0.40783428100000002</v>
       </c>
-      <c r="T14" s="15">
+      <c r="T14" s="10">
         <v>0.40799999999999997</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="11" t="s">
+      <c r="A15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="6">
         <v>62</v>
       </c>
-      <c r="D15" s="11">
-        <v>11</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="12">
+      <c r="D15" s="6">
+        <v>11</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="7">
         <v>0.18424826</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="7">
         <v>0.18685905</v>
       </c>
-      <c r="H15" s="12">
-        <v>1</v>
-      </c>
-      <c r="I15" s="12">
+      <c r="H15" s="7">
+        <v>1</v>
+      </c>
+      <c r="I15" s="7">
         <v>0.93706456900000001</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="7">
         <v>0.32755246100000002</v>
       </c>
-      <c r="K15" s="13">
+      <c r="K15" s="8">
         <v>3.4067069999999998E-2</v>
       </c>
-      <c r="L15" s="13">
+      <c r="L15" s="8">
         <v>0.40912309899999999</v>
       </c>
-      <c r="M15" s="13">
+      <c r="M15" s="8">
         <v>0.27253656399999998</v>
       </c>
-      <c r="N15" s="13">
+      <c r="N15" s="8">
         <v>6.8134140999999995E-2</v>
       </c>
-      <c r="O15" s="13">
+      <c r="O15" s="8">
         <v>3.8933795E-2</v>
       </c>
-      <c r="P15" s="15">
+      <c r="P15" s="10">
         <v>3.8699999999999999E-5</v>
       </c>
-      <c r="Q15" s="14">
+      <c r="Q15" s="9">
         <v>0.86066496100000001</v>
       </c>
-      <c r="R15" s="14">
+      <c r="R15" s="9">
         <v>3.0939599999999998E-4</v>
       </c>
-      <c r="S15" s="14">
+      <c r="S15" s="9">
         <v>1.9337299999999999E-4</v>
       </c>
-      <c r="T15" s="15">
+      <c r="T15" s="10">
         <v>7.7299999999999995E-5</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="11" t="s">
+      <c r="A16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="6">
         <v>62</v>
       </c>
-      <c r="D16" s="11">
-        <v>11</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="12">
+      <c r="D16" s="6">
+        <v>11</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="7">
         <v>0.83395642999999997</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="7">
         <v>5.1476849999999999E-3</v>
       </c>
-      <c r="H16" s="12">
-        <v>1</v>
-      </c>
-      <c r="I16" s="12">
+      <c r="H16" s="7">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7">
         <v>0.93706456900000001</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="7">
         <v>0.92412344800000001</v>
       </c>
-      <c r="K16" s="13">
+      <c r="K16" s="8">
         <v>3.4067069999999998E-2</v>
       </c>
-      <c r="L16" s="13">
+      <c r="L16" s="8">
         <v>0.40912309899999999</v>
       </c>
-      <c r="M16" s="13">
+      <c r="M16" s="8">
         <v>0.27253656399999998</v>
       </c>
-      <c r="N16" s="13">
+      <c r="N16" s="8">
         <v>6.8134140999999995E-2</v>
       </c>
-      <c r="O16" s="13">
+      <c r="O16" s="8">
         <v>3.8933795E-2</v>
       </c>
-      <c r="P16" s="15">
+      <c r="P16" s="10">
         <v>3.8699999999999999E-5</v>
       </c>
-      <c r="Q16" s="14">
+      <c r="Q16" s="9">
         <v>0.86066496100000001</v>
       </c>
-      <c r="R16" s="14">
+      <c r="R16" s="9">
         <v>3.0939599999999998E-4</v>
       </c>
-      <c r="S16" s="14">
+      <c r="S16" s="9">
         <v>1.9337299999999999E-4</v>
       </c>
-      <c r="T16" s="15">
+      <c r="T16" s="10">
         <v>7.7299999999999995E-5</v>
       </c>
     </row>
@@ -3330,8 +3382,8 @@
     <mergeCell ref="F3:J3"/>
     <mergeCell ref="K3:O3"/>
     <mergeCell ref="P3:T3"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A2:T2"/>
+    <mergeCell ref="A1:T1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3341,873 +3393,903 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F80615E1-7162-4E4A-9B78-187BC642500B}">
   <dimension ref="A1:T16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="34.44140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="2"/>
-    <col min="7" max="7" width="12.21875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10" style="2" customWidth="1"/>
-    <col min="9" max="11" width="8.88671875" style="2"/>
-    <col min="12" max="12" width="12.33203125" style="2" customWidth="1"/>
-    <col min="13" max="13" width="10.21875" style="2" customWidth="1"/>
-    <col min="14" max="16" width="8.88671875" style="2"/>
-    <col min="17" max="17" width="12.77734375" style="2" customWidth="1"/>
-    <col min="18" max="18" width="9.88671875" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="26" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="12.21875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="1" customWidth="1"/>
+    <col min="9" max="11" width="8.88671875" style="1"/>
+    <col min="12" max="12" width="12.33203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.21875" style="1" customWidth="1"/>
+    <col min="14" max="16" width="8.88671875" style="1"/>
+    <col min="17" max="17" width="12.77734375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9.88671875" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="A1" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
     </row>
     <row r="2" spans="1:20" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="A2" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="5" t="s">
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="6" t="s">
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="15"/>
+      <c r="S3" s="15"/>
+      <c r="T3" s="15"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="8" t="s">
+      <c r="F4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="9" t="s">
+      <c r="K4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="O4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q4" s="10" t="s">
+      <c r="P4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="R4" s="10" t="s">
+      <c r="R4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="S4" s="10" t="s">
+      <c r="S4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="T4" s="10" t="s">
+      <c r="T4" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="6">
         <v>63</v>
       </c>
-      <c r="D5" s="11">
-        <v>11</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="12">
+      <c r="D5" s="6">
+        <v>11</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="7">
         <v>2.6143339999999998E-3</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="7">
         <v>0.65304130000000005</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="7">
         <v>0.08</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="7">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="7">
         <v>0.01</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="8">
         <v>1.172555E-3</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="8">
         <v>0.70766424100000003</v>
       </c>
-      <c r="M5" s="20">
+      <c r="M5" s="12">
         <v>9.3799999999999994E-3</v>
       </c>
-      <c r="N5" s="20">
+      <c r="N5" s="12">
         <v>7.0400000000000003E-3</v>
       </c>
-      <c r="O5" s="20">
+      <c r="O5" s="12">
         <v>3.13E-3</v>
       </c>
-      <c r="P5" s="14">
+      <c r="P5" s="9">
         <v>0.60564373199999999</v>
       </c>
-      <c r="Q5" s="14">
+      <c r="Q5" s="9">
         <v>3.0817504999999999E-2</v>
       </c>
-      <c r="R5" s="14">
-        <v>1</v>
-      </c>
-      <c r="S5" s="14">
+      <c r="R5" s="9">
+        <v>1</v>
+      </c>
+      <c r="S5" s="9">
         <v>0.68289679999999997</v>
       </c>
-      <c r="T5" s="14">
+      <c r="T5" s="9">
         <v>0.68289679999999997</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="11" t="s">
+      <c r="A6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="6">
         <v>63</v>
       </c>
-      <c r="D6" s="11">
-        <v>11</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="12">
+      <c r="D6" s="6">
+        <v>11</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="7">
         <v>7.4645375E-2</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="7">
         <v>0.31102115499999999</v>
       </c>
-      <c r="H6" s="12">
-        <v>1</v>
-      </c>
-      <c r="I6" s="12">
+      <c r="H6" s="7">
+        <v>1</v>
+      </c>
+      <c r="I6" s="7">
         <v>0.93</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="7">
         <v>0.15</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="8">
         <v>7.8174099999999997E-4</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="8">
         <v>0.73206565899999998</v>
       </c>
-      <c r="M6" s="20">
+      <c r="M6" s="12">
         <v>6.2500000000000003E-3</v>
       </c>
-      <c r="N6" s="20">
+      <c r="N6" s="12">
         <v>5.47E-3</v>
       </c>
-      <c r="O6" s="20">
+      <c r="O6" s="12">
         <v>3.13E-3</v>
       </c>
-      <c r="P6" s="14">
+      <c r="P6" s="9">
         <v>0.100420249</v>
       </c>
-      <c r="Q6" s="14">
+      <c r="Q6" s="9">
         <v>0.27129219100000002</v>
       </c>
-      <c r="R6" s="14">
+      <c r="R6" s="9">
         <v>0.80336200000000002</v>
       </c>
-      <c r="S6" s="14">
+      <c r="S6" s="9">
         <v>0.68289679999999997</v>
       </c>
-      <c r="T6" s="14">
+      <c r="T6" s="9">
         <v>0.34627750000000002</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="6">
         <v>63</v>
       </c>
-      <c r="D7" s="11">
-        <v>11</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="12">
+      <c r="D7" s="6">
+        <v>11</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="7">
         <v>0.41782344900000001</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="7">
         <v>7.4170976999999999E-2</v>
       </c>
-      <c r="H7" s="12">
-        <v>1</v>
-      </c>
-      <c r="I7" s="12">
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
         <v>0.93</v>
       </c>
-      <c r="J7" s="12">
+      <c r="J7" s="7">
         <v>0.57999999999999996</v>
       </c>
-      <c r="K7" s="20">
+      <c r="K7" s="12">
         <v>1.01E-5</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="8">
         <v>0.89630261</v>
       </c>
-      <c r="M7" s="20">
+      <c r="M7" s="12">
         <v>8.0599999999999994E-5</v>
       </c>
-      <c r="N7" s="20">
+      <c r="N7" s="12">
         <v>8.0599999999999994E-5</v>
       </c>
-      <c r="O7" s="20">
+      <c r="O7" s="12">
         <v>8.0599999999999994E-5</v>
       </c>
-      <c r="P7" s="14">
+      <c r="P7" s="9">
         <v>0.129854056</v>
       </c>
-      <c r="Q7" s="14">
+      <c r="Q7" s="9">
         <v>0.23593123399999999</v>
       </c>
-      <c r="R7" s="14">
-        <v>1</v>
-      </c>
-      <c r="S7" s="14">
+      <c r="R7" s="9">
+        <v>1</v>
+      </c>
+      <c r="S7" s="9">
         <v>0.68289679999999997</v>
       </c>
-      <c r="T7" s="14">
+      <c r="T7" s="9">
         <v>0.34627750000000002</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="11" t="s">
+      <c r="A8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="6">
         <v>63</v>
       </c>
-      <c r="D8" s="11">
-        <v>11</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="12">
+      <c r="D8" s="6">
+        <v>11</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="7">
         <v>0.87689614100000002</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="7">
         <v>2.8141659999999999E-3</v>
       </c>
-      <c r="H8" s="12">
-        <v>1</v>
-      </c>
-      <c r="I8" s="12">
+      <c r="H8" s="7">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7">
         <v>0.93</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="7">
         <v>0.92</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="8">
         <v>2.1925E-3</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L8" s="8">
         <v>0.66579644100000002</v>
       </c>
-      <c r="M8" s="20">
+      <c r="M8" s="12">
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="N8" s="20">
+      <c r="N8" s="12">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="O8" s="20">
+      <c r="O8" s="12">
         <v>4.3899999999999998E-3</v>
       </c>
-      <c r="P8" s="14">
+      <c r="P8" s="9">
         <v>9.3347974E-2</v>
       </c>
-      <c r="Q8" s="14">
+      <c r="Q8" s="9">
         <v>0.28119036200000003</v>
       </c>
-      <c r="R8" s="14">
+      <c r="R8" s="9">
         <v>0.7467838</v>
       </c>
-      <c r="S8" s="14">
+      <c r="S8" s="9">
         <v>0.68289679999999997</v>
       </c>
-      <c r="T8" s="14">
+      <c r="T8" s="9">
         <v>0.34627750000000002</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="6">
         <v>63</v>
       </c>
-      <c r="D9" s="11">
-        <v>11</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="12">
+      <c r="D9" s="6">
+        <v>11</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="7">
         <v>0.21243640599999999</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G9" s="7">
         <v>0.16676195199999999</v>
       </c>
-      <c r="H9" s="12">
-        <v>1</v>
-      </c>
-      <c r="I9" s="12">
+      <c r="H9" s="7">
+        <v>1</v>
+      </c>
+      <c r="I9" s="7">
         <v>0.93</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="7">
         <v>0.34</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="8">
         <v>1.1184135E-2</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L9" s="8">
         <v>0.52910715500000005</v>
       </c>
-      <c r="M9" s="20">
+      <c r="M9" s="12">
         <v>8.9499999999999996E-2</v>
       </c>
-      <c r="N9" s="20">
+      <c r="N9" s="12">
         <v>2.24E-2</v>
       </c>
-      <c r="O9" s="20">
+      <c r="O9" s="12">
         <v>1.2800000000000001E-2</v>
       </c>
-      <c r="P9" s="14">
+      <c r="P9" s="9">
         <v>0.53637675100000004</v>
       </c>
-      <c r="Q9" s="14">
+      <c r="Q9" s="9">
         <v>4.3896554999999997E-2</v>
       </c>
-      <c r="R9" s="14">
-        <v>1</v>
-      </c>
-      <c r="S9" s="14">
+      <c r="R9" s="9">
+        <v>1</v>
+      </c>
+      <c r="S9" s="9">
         <v>0.68289679999999997</v>
       </c>
-      <c r="T9" s="14">
+      <c r="T9" s="9">
         <v>0.68289679999999997</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="6">
         <v>63</v>
       </c>
-      <c r="D10" s="11">
-        <v>11</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="12">
+      <c r="D10" s="6">
+        <v>11</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="7">
         <v>0.68655725999999995</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G10" s="7">
         <v>1.8941078E-2</v>
       </c>
-      <c r="H10" s="12">
-        <v>1</v>
-      </c>
-      <c r="I10" s="12">
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
         <v>0.93</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="7">
         <v>0.81</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="8">
         <v>1.1184135E-2</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L10" s="8">
         <v>0.52910715500000005</v>
       </c>
-      <c r="M10" s="20">
+      <c r="M10" s="12">
         <v>8.9499999999999996E-2</v>
       </c>
-      <c r="N10" s="20">
+      <c r="N10" s="12">
         <v>2.24E-2</v>
       </c>
-      <c r="O10" s="20">
+      <c r="O10" s="12">
         <v>1.2800000000000001E-2</v>
       </c>
-      <c r="P10" s="14">
+      <c r="P10" s="9">
         <v>0.53637675100000004</v>
       </c>
-      <c r="Q10" s="14">
+      <c r="Q10" s="9">
         <v>4.3896554999999997E-2</v>
       </c>
-      <c r="R10" s="14">
-        <v>1</v>
-      </c>
-      <c r="S10" s="14">
+      <c r="R10" s="9">
+        <v>1</v>
+      </c>
+      <c r="S10" s="9">
         <v>0.68289679999999997</v>
       </c>
-      <c r="T10" s="14">
+      <c r="T10" s="9">
         <v>0.68289679999999997</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="11" t="s">
+      <c r="A11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="6">
         <v>63</v>
       </c>
-      <c r="D11" s="11">
-        <v>11</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="12">
+      <c r="D11" s="6">
+        <v>11</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="7">
         <v>9.8377184000000006E-2</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="7">
         <v>0.274085356</v>
       </c>
-      <c r="H11" s="12">
-        <v>1</v>
-      </c>
-      <c r="I11" s="12">
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7">
         <v>0.93706456900000001</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="7">
         <v>0.209871325</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K11" s="8">
         <v>0.33718487699999999</v>
       </c>
-      <c r="L11" s="13">
+      <c r="L11" s="8">
         <v>0.102482606</v>
       </c>
-      <c r="M11" s="13">
-        <v>1</v>
-      </c>
-      <c r="N11" s="13">
+      <c r="M11" s="8">
+        <v>1</v>
+      </c>
+      <c r="N11" s="8">
         <v>0.34870200000000001</v>
       </c>
-      <c r="O11" s="13">
+      <c r="O11" s="8">
         <v>0.34870200000000001</v>
       </c>
-      <c r="P11" s="14">
+      <c r="P11" s="9">
         <v>0.88938313999999996</v>
       </c>
-      <c r="Q11" s="14">
+      <c r="Q11" s="9">
         <v>2.2693280000000001E-3</v>
       </c>
-      <c r="R11" s="14">
-        <v>1</v>
-      </c>
-      <c r="S11" s="14">
+      <c r="R11" s="9">
+        <v>1</v>
+      </c>
+      <c r="S11" s="9">
         <v>0.88938309999999998</v>
       </c>
-      <c r="T11" s="14">
+      <c r="T11" s="9">
         <v>0.88938309999999998</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="11" t="s">
+      <c r="A12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="6">
         <v>63</v>
       </c>
-      <c r="D12" s="11">
-        <v>11</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="12">
+      <c r="D12" s="6">
+        <v>11</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="7">
         <v>0.43910842999999999</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="7">
         <v>6.7867316999999996E-2</v>
       </c>
-      <c r="H12" s="12">
-        <v>1</v>
-      </c>
-      <c r="I12" s="12">
+      <c r="H12" s="7">
+        <v>1</v>
+      </c>
+      <c r="I12" s="7">
         <v>0.93706456900000001</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="7">
         <v>0.58700144099999996</v>
       </c>
-      <c r="K12" s="13">
+      <c r="K12" s="8">
         <v>1.9996404999999998E-2</v>
       </c>
-      <c r="L12" s="13">
+      <c r="L12" s="8">
         <v>0.46937508</v>
       </c>
-      <c r="M12" s="13">
+      <c r="M12" s="8">
         <v>0.15997120000000001</v>
       </c>
-      <c r="N12" s="13">
+      <c r="N12" s="8">
         <v>0.15997120000000001</v>
       </c>
-      <c r="O12" s="13">
+      <c r="O12" s="8">
         <v>0.15997120000000001</v>
       </c>
-      <c r="P12" s="14">
+      <c r="P12" s="9">
         <v>0.354633382</v>
       </c>
-      <c r="Q12" s="14">
+      <c r="Q12" s="9">
         <v>9.5686359999999998E-2</v>
       </c>
-      <c r="R12" s="14">
-        <v>1</v>
-      </c>
-      <c r="S12" s="14">
+      <c r="R12" s="9">
+        <v>1</v>
+      </c>
+      <c r="S12" s="9">
         <v>0.88938309999999998</v>
       </c>
-      <c r="T12" s="14">
+      <c r="T12" s="9">
         <v>0.88938309999999998</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="11" t="s">
+      <c r="A13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="6">
         <v>63</v>
       </c>
-      <c r="D13" s="11">
-        <v>11</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="12">
+      <c r="D13" s="6">
+        <v>11</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="7">
         <v>0.70964781300000002</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="7">
         <v>1.6148243999999999E-2</v>
       </c>
-      <c r="H13" s="12">
-        <v>1</v>
-      </c>
-      <c r="I13" s="12">
+      <c r="H13" s="7">
+        <v>1</v>
+      </c>
+      <c r="I13" s="7">
         <v>0.93706456900000001</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="7">
         <v>0.87341269300000002</v>
       </c>
-      <c r="K13" s="13">
+      <c r="K13" s="8">
         <v>0.25732123299999998</v>
       </c>
-      <c r="L13" s="13">
+      <c r="L13" s="8">
         <v>0.139795743</v>
       </c>
-      <c r="M13" s="13">
-        <v>1</v>
-      </c>
-      <c r="N13" s="13">
+      <c r="M13" s="8">
+        <v>1</v>
+      </c>
+      <c r="N13" s="8">
         <v>0.34870200000000001</v>
       </c>
-      <c r="O13" s="13">
+      <c r="O13" s="8">
         <v>0.34309499999999998</v>
       </c>
-      <c r="P13" s="14">
+      <c r="P13" s="9">
         <v>0.33552858699999999</v>
       </c>
-      <c r="Q13" s="14">
+      <c r="Q13" s="9">
         <v>0.10314954899999999</v>
       </c>
-      <c r="R13" s="14">
-        <v>1</v>
-      </c>
-      <c r="S13" s="14">
+      <c r="R13" s="9">
+        <v>1</v>
+      </c>
+      <c r="S13" s="9">
         <v>0.88938309999999998</v>
       </c>
-      <c r="T13" s="14">
+      <c r="T13" s="9">
         <v>0.88938309999999998</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="11" t="s">
+      <c r="A14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="6">
         <v>63</v>
       </c>
-      <c r="D14" s="11">
-        <v>11</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="12">
+      <c r="D14" s="6">
+        <v>11</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="7">
         <v>0.20280440399999999</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="7">
         <v>0.17331195099999999</v>
       </c>
-      <c r="H14" s="12">
-        <v>1</v>
-      </c>
-      <c r="I14" s="12">
+      <c r="H14" s="7">
+        <v>1</v>
+      </c>
+      <c r="I14" s="7">
         <v>0.93706456900000001</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="7">
         <v>0.34156531200000001</v>
       </c>
-      <c r="K14" s="13">
+      <c r="K14" s="8">
         <v>0.34870195999999998</v>
       </c>
-      <c r="L14" s="13">
+      <c r="L14" s="8">
         <v>9.7950593000000002E-2</v>
       </c>
-      <c r="M14" s="13">
-        <v>1</v>
-      </c>
-      <c r="N14" s="13">
+      <c r="M14" s="8">
+        <v>1</v>
+      </c>
+      <c r="N14" s="8">
         <v>0.34870200000000001</v>
       </c>
-      <c r="O14" s="13">
+      <c r="O14" s="8">
         <v>0.34870200000000001</v>
       </c>
-      <c r="P14" s="14">
+      <c r="P14" s="9">
         <v>0.151564218</v>
       </c>
-      <c r="Q14" s="14">
+      <c r="Q14" s="9">
         <v>0.21434423</v>
       </c>
-      <c r="R14" s="14">
-        <v>1</v>
-      </c>
-      <c r="S14" s="14">
+      <c r="R14" s="9">
+        <v>1</v>
+      </c>
+      <c r="S14" s="9">
         <v>0.88938309999999998</v>
       </c>
-      <c r="T14" s="14">
+      <c r="T14" s="9">
         <v>0.88938309999999998</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="11" t="s">
+      <c r="A15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="6">
         <v>63</v>
       </c>
-      <c r="D15" s="11">
-        <v>11</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="12">
+      <c r="D15" s="6">
+        <v>11</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="7">
         <v>0.93706456900000001</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="7">
         <v>7.3196100000000005E-4</v>
       </c>
-      <c r="H15" s="12">
-        <v>1</v>
-      </c>
-      <c r="I15" s="12">
+      <c r="H15" s="7">
+        <v>1</v>
+      </c>
+      <c r="I15" s="7">
         <v>0.93706456900000001</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="7">
         <v>0.93706456900000001</v>
       </c>
-      <c r="K15" s="13">
+      <c r="K15" s="8">
         <v>0.103671056</v>
       </c>
-      <c r="L15" s="13">
+      <c r="L15" s="8">
         <v>0.26695206999999999</v>
       </c>
-      <c r="M15" s="13">
+      <c r="M15" s="8">
         <v>0.82936840000000001</v>
       </c>
-      <c r="N15" s="13">
+      <c r="N15" s="8">
         <v>0.34870200000000001</v>
       </c>
-      <c r="O15" s="13">
+      <c r="O15" s="8">
         <v>0.16587370000000001</v>
       </c>
-      <c r="P15" s="14">
+      <c r="P15" s="9">
         <v>0.828816306</v>
       </c>
-      <c r="Q15" s="14">
+      <c r="Q15" s="9">
         <v>5.4755059999999998E-3</v>
       </c>
-      <c r="R15" s="14">
-        <v>1</v>
-      </c>
-      <c r="S15" s="14">
+      <c r="R15" s="9">
+        <v>1</v>
+      </c>
+      <c r="S15" s="9">
         <v>0.88938309999999998</v>
       </c>
-      <c r="T15" s="14">
+      <c r="T15" s="9">
         <v>0.88938309999999998</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="11" t="s">
+      <c r="A16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="6">
         <v>63</v>
       </c>
-      <c r="D16" s="11">
-        <v>11</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="12">
+      <c r="D16" s="6">
+        <v>11</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="7">
         <v>0.126830465</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="7">
         <v>0.23920244299999999</v>
       </c>
-      <c r="H16" s="12">
-        <v>1</v>
-      </c>
-      <c r="I16" s="12">
+      <c r="H16" s="7">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7">
         <v>0.93706456900000001</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="7">
         <v>0.25366093000000001</v>
       </c>
-      <c r="K16" s="13">
+      <c r="K16" s="8">
         <v>0.103671056</v>
       </c>
-      <c r="L16" s="13">
+      <c r="L16" s="8">
         <v>0.26695206999999999</v>
       </c>
-      <c r="M16" s="13">
+      <c r="M16" s="8">
         <v>0.82936840000000001</v>
       </c>
-      <c r="N16" s="13">
+      <c r="N16" s="8">
         <v>0.34870200000000001</v>
       </c>
-      <c r="O16" s="13">
+      <c r="O16" s="8">
         <v>0.16587370000000001</v>
       </c>
-      <c r="P16" s="14">
+      <c r="P16" s="9">
         <v>0.828816306</v>
       </c>
-      <c r="Q16" s="14">
+      <c r="Q16" s="9">
         <v>5.4755059999999998E-3</v>
       </c>
-      <c r="R16" s="14">
-        <v>1</v>
-      </c>
-      <c r="S16" s="14">
+      <c r="R16" s="9">
+        <v>1</v>
+      </c>
+      <c r="S16" s="9">
         <v>0.88938309999999998</v>
       </c>
-      <c r="T16" s="14">
+      <c r="T16" s="9">
         <v>0.88938309999999998</v>
       </c>
     </row>
@@ -4216,8 +4298,8 @@
     <mergeCell ref="F3:J3"/>
     <mergeCell ref="K3:O3"/>
     <mergeCell ref="P3:T3"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A1:T1"/>
+    <mergeCell ref="A2:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
